--- a/biology/Botanique/Pecorino_(cépage)/Pecorino_(cépage).xlsx
+++ b/biology/Botanique/Pecorino_(cépage)/Pecorino_(cépage).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pecorino_(c%C3%A9page)</t>
+          <t>Pecorino_(cépage)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le pecorino est un cépage blanc italien qui pousse dans les régions des Marches, des Abruzzes, de la Toscane, de l'Ombrie et du Latium en Italie. Les ampélographes pensent que le raisin est probablement originaire des Marches, où le sol destiné à cette culture augmente chaque année. Ce cépage est utilisé pour produire les vins DOCG (denominazione di origine controllata e garantita), comme l'Offida Pecorino DOCG, et les vins DOC (Denominazione di origine controllata), comme le Falerio dei Colli Ascolani, le Colli Maceratesi et le Falerio dei Colli Ascolani.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pecorino_(c%C3%A9page)</t>
+          <t>Pecorino_(cépage)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pecorino est un très ancien cépage qui, comme le croient les ampélographes, est probablement originaire de vignes sauvages poussant dans les monts Sibyllins qui a finalement été domestiqué pour la production de vin. Malgré son nom, il n'y a pas de lien direct entre le raisin pecorino et le fromage pecorino. Les ampélographes pensent que le nom du raisin dérive du mot italien pecora, qui signifie mouton, car ce raisin pousse dans les montagnes où le mouton paissait. Selon la population locale, les moutons de la région des Marches mangeaient souvent les raisins en se déplaçant dans les vignes.
 Dans les temps anciens, les Romains considéraient l'Italie centrale comme très importante pour la production de vin, spécialement transformé à partir de ce raisin. Cette culture est largement documentée depuis la seconde partie du XIXe siècle.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pecorino_(c%C3%A9page)</t>
+          <t>Pecorino_(cépage)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Viticulture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pecorino est une variété à maturation précoce qui a tendance à produire naturellement de faibles rendements même sans élagage hivernal rigoureux. La variété n'a pas beaucoup de risques viticoles avec une forte résistance au mildiou et à l'oïdium.
 </t>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pecorino_(c%C3%A9page)</t>
+          <t>Pecorino_(cépage)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En 2000, 87 hectares de pecorino étaient plantés en Italie, principalement dans la région d'Arquata del Tronto de la province d'Ascoli Piceno dans les Marches. Dans les années 1980, Guido Cocci Grifoni a été le premier producteur à utiliser largement le pecorino dans ses vins Offida DOC et a introduit la variété dans le district voisin de Ripatransone. Aujourd'hui, il est toujours une variété autorisée dans les vins DOC de la région des Marches, dans le Falerio dei Colli Ascolani, le Colli Maceratesi et l'Offida.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Pecorino_(c%C3%A9page)</t>
+          <t>Pecorino_(cépage)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,9 +626,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le pecorino est aussi connu sous les noms suivants[1]:
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pecorino est aussi connu sous les noms suivants:
 Arquitano
 Biancuccia
 Bifolchetto
